--- a/RFB -Eisen-Salz( Voltstorage) .xlsx
+++ b/RFB -Eisen-Salz( Voltstorage) .xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +441,67 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>PV Erzeugung [kW]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Verbrauch [kW]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Netz Nutzung [kW]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gedeckter Verbrauch aus PV [kW]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Einspeisung PV [kW]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ladungänderung [kWh]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Battery Ladezustand [kWh]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Battery Leistungsdurchsatz [kW]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Battery Betrieb Verbrauch [kW]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Battery Betrieb Energie [kWh]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>PV [kW]</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Verbrauch [kW]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Grid use [kW]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Consumption cover by PV [kW]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PV feed [kW]</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Leistungsüberschüss [kW]</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Battery Kapazität [kWh]</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Battery Leistungsdurchsatz [kW]</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Battery Betrieb Verbrauch [kW]</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Battery Betrieb Energie [kWh]</t>
         </is>
       </c>
     </row>
@@ -506,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -524,11 +539,14 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -552,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -561,7 +579,7 @@
         <v>0.25</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
@@ -569,6 +587,9 @@
       <c r="L3" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -592,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
@@ -601,7 +622,7 @@
         <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
@@ -609,6 +630,9 @@
       <c r="L4" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -632,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
@@ -641,7 +665,7 @@
         <v>0.75</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="K5" t="n">
         <v>3.75</v>
@@ -649,6 +673,9 @@
       <c r="L5" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -672,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
@@ -681,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -689,6 +716,9 @@
       <c r="L6" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -712,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
@@ -721,7 +751,7 @@
         <v>1.25</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="K7" t="n">
         <v>3.75</v>
@@ -729,6 +759,9 @@
       <c r="L7" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -752,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -761,7 +794,7 @@
         <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="K8" t="n">
         <v>3.75</v>
@@ -769,6 +802,9 @@
       <c r="L8" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -792,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>24.5</v>
       </c>
       <c r="H9" t="n">
         <v>35</v>
@@ -801,7 +837,7 @@
         <v>4.125</v>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
@@ -809,6 +845,9 @@
       <c r="L9" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -832,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>24.5</v>
       </c>
       <c r="H10" t="n">
         <v>35</v>
@@ -841,7 +880,7 @@
         <v>6.75</v>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
@@ -849,6 +888,9 @@
       <c r="L10" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -872,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>24.5</v>
       </c>
       <c r="H11" t="n">
         <v>35</v>
@@ -881,7 +923,7 @@
         <v>9.375</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
@@ -889,6 +931,9 @@
       <c r="L11" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -912,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>40</v>
+        <v>44.5</v>
       </c>
       <c r="H12" t="n">
         <v>55</v>
@@ -921,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K12" t="n">
         <v>3.75</v>
@@ -929,6 +974,9 @@
       <c r="L12" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -952,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>44.5</v>
       </c>
       <c r="H13" t="n">
         <v>55</v>
@@ -961,7 +1009,7 @@
         <v>14.625</v>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K13" t="n">
         <v>3.75</v>
@@ -969,6 +1017,9 @@
       <c r="L13" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -986,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1001,7 +1052,7 @@
         <v>12.37171</v>
       </c>
       <c r="J14" t="n">
-        <v>-5</v>
+        <v>-2.25</v>
       </c>
       <c r="K14" t="n">
         <v>3.75</v>
@@ -1009,6 +1060,9 @@
       <c r="L14" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1026,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1041,7 +1095,7 @@
         <v>10.11842</v>
       </c>
       <c r="J15" t="n">
-        <v>-5</v>
+        <v>-2.25</v>
       </c>
       <c r="K15" t="n">
         <v>3.75</v>
@@ -1049,6 +1103,9 @@
       <c r="L15" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1066,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1081,7 +1138,7 @@
         <v>7.60197</v>
       </c>
       <c r="J16" t="n">
-        <v>-6</v>
+        <v>-2.52</v>
       </c>
       <c r="K16" t="n">
         <v>3.75</v>
@@ -1089,6 +1146,9 @@
       <c r="L16" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1106,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1121,7 +1181,7 @@
         <v>5.08553</v>
       </c>
       <c r="J17" t="n">
-        <v>-6</v>
+        <v>-2.52</v>
       </c>
       <c r="K17" t="n">
         <v>3.75</v>
@@ -1129,6 +1189,9 @@
       <c r="L17" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1146,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1161,7 +1224,7 @@
         <v>2.56908</v>
       </c>
       <c r="J18" t="n">
-        <v>-6</v>
+        <v>-2.52</v>
       </c>
       <c r="K18" t="n">
         <v>3.75</v>
@@ -1169,6 +1232,9 @@
       <c r="L18" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1186,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1201,7 +1267,7 @@
         <v>0.05263</v>
       </c>
       <c r="J19" t="n">
-        <v>-6</v>
+        <v>-2.52</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
@@ -1209,6 +1275,9 @@
       <c r="L19" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1226,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1238,17 +1307,20 @@
         <v>-6</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1266,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1278,17 +1350,20 @@
         <v>-6</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1306,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1318,17 +1393,20 @@
         <v>-5</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1346,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1358,17 +1436,20 @@
         <v>-6</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1386,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1398,17 +1479,20 @@
         <v>-5</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1426,7 +1510,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1438,17 +1522,20 @@
         <v>-6</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1466,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1478,17 +1565,20 @@
         <v>-6</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1506,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1518,17 +1608,20 @@
         <v>-5</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1558,17 +1651,20 @@
         <v>-5</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1586,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1598,17 +1694,20 @@
         <v>-6</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1626,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1638,17 +1737,20 @@
         <v>-6</v>
       </c>
       <c r="I30" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1678,7 +1780,7 @@
         <v>-4</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1689,6 +1791,9 @@
       <c r="L31" t="n">
         <v>0</v>
       </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1706,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1718,17 +1823,20 @@
         <v>-5</v>
       </c>
       <c r="I32" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1758,7 +1866,7 @@
         <v>-4</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1769,6 +1877,9 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1798,7 +1909,7 @@
         <v>-3</v>
       </c>
       <c r="I34" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1809,6 +1920,9 @@
       <c r="L34" t="n">
         <v>0</v>
       </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1838,7 +1952,7 @@
         <v>-3</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1849,6 +1963,9 @@
       <c r="L35" t="n">
         <v>0</v>
       </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1878,7 +1995,7 @@
         <v>-2</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1889,6 +2006,9 @@
       <c r="L36" t="n">
         <v>0</v>
       </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1918,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1929,6 +2049,9 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1958,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1969,6 +2092,9 @@
       <c r="L38" t="n">
         <v>0</v>
       </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1998,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2009,6 +2135,9 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2038,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2049,6 +2178,9 @@
       <c r="L40" t="n">
         <v>0</v>
       </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2078,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2089,6 +2221,9 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2118,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2129,6 +2264,9 @@
       <c r="L42" t="n">
         <v>0</v>
       </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2158,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2169,6 +2307,9 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2198,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2209,6 +2350,9 @@
       <c r="L44" t="n">
         <v>0</v>
       </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2238,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05263</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2249,6 +2393,9 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2272,16 +2419,16 @@
         <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="H46" t="n">
         <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>2.67763</v>
+        <v>2.625</v>
       </c>
       <c r="J46" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K46" t="n">
         <v>3.75</v>
@@ -2289,6 +2436,9 @@
       <c r="L46" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2312,16 +2462,16 @@
         <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="H47" t="n">
         <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>5.30263</v>
+        <v>5.25</v>
       </c>
       <c r="J47" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K47" t="n">
         <v>3.75</v>
@@ -2329,6 +2479,9 @@
       <c r="L47" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2352,16 +2505,16 @@
         <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="H48" t="n">
         <v>20</v>
       </c>
       <c r="I48" t="n">
-        <v>7.92763</v>
+        <v>7.875</v>
       </c>
       <c r="J48" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K48" t="n">
         <v>3.75</v>
@@ -2369,6 +2522,9 @@
       <c r="L48" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2392,16 +2548,16 @@
         <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="H49" t="n">
         <v>20</v>
       </c>
       <c r="I49" t="n">
-        <v>10.55263</v>
+        <v>10.5</v>
       </c>
       <c r="J49" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K49" t="n">
         <v>3.75</v>
@@ -2409,6 +2565,9 @@
       <c r="L49" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2432,16 +2591,16 @@
         <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="H50" t="n">
         <v>20</v>
       </c>
       <c r="I50" t="n">
-        <v>13.17763</v>
+        <v>13.125</v>
       </c>
       <c r="J50" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K50" t="n">
         <v>3.75</v>
@@ -2449,6 +2608,9 @@
       <c r="L50" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2472,16 +2634,16 @@
         <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="H51" t="n">
         <v>20</v>
       </c>
       <c r="I51" t="n">
-        <v>15.80263</v>
+        <v>15.75</v>
       </c>
       <c r="J51" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K51" t="n">
         <v>3.75</v>
@@ -2489,6 +2651,9 @@
       <c r="L51" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2512,16 +2677,16 @@
         <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="H52" t="n">
         <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>18.42763</v>
+        <v>18.375</v>
       </c>
       <c r="J52" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K52" t="n">
         <v>3.75</v>
@@ -2529,6 +2694,9 @@
       <c r="L52" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2552,16 +2720,16 @@
         <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="H53" t="n">
         <v>65</v>
       </c>
       <c r="I53" t="n">
-        <v>21.05263</v>
+        <v>21</v>
       </c>
       <c r="J53" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="K53" t="n">
         <v>3.75</v>
@@ -2569,6 +2737,9 @@
       <c r="L53" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2592,16 +2763,16 @@
         <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54" t="n">
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="K54" t="n">
         <v>3.75</v>
@@ -2609,6 +2780,9 @@
       <c r="L54" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2638,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2649,6 +2823,9 @@
       <c r="L55" t="n">
         <v>0</v>
       </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2678,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2689,6 +2866,9 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2718,7 +2898,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2729,6 +2909,9 @@
       <c r="L57" t="n">
         <v>0</v>
       </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2758,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2769,6 +2952,9 @@
       <c r="L58" t="n">
         <v>0</v>
       </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2798,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2809,6 +2995,9 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2838,7 +3027,7 @@
         <v>-1</v>
       </c>
       <c r="I60" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2849,6 +3038,9 @@
       <c r="L60" t="n">
         <v>0</v>
       </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2878,7 +3070,7 @@
         <v>-1</v>
       </c>
       <c r="I61" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2889,6 +3081,9 @@
       <c r="L61" t="n">
         <v>0</v>
       </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2918,7 +3113,7 @@
         <v>-1</v>
       </c>
       <c r="I62" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2929,6 +3124,9 @@
       <c r="L62" t="n">
         <v>0</v>
       </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2958,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2969,6 +3167,9 @@
       <c r="L63" t="n">
         <v>0</v>
       </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2998,7 +3199,7 @@
         <v>-2</v>
       </c>
       <c r="I64" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3009,6 +3210,9 @@
       <c r="L64" t="n">
         <v>0</v>
       </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3038,7 +3242,7 @@
         <v>-2</v>
       </c>
       <c r="I65" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3049,6 +3253,9 @@
       <c r="L65" t="n">
         <v>0</v>
       </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3078,7 +3285,7 @@
         <v>-3</v>
       </c>
       <c r="I66" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3089,6 +3296,9 @@
       <c r="L66" t="n">
         <v>0</v>
       </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3118,7 +3328,7 @@
         <v>-3</v>
       </c>
       <c r="I67" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3129,6 +3339,9 @@
       <c r="L67" t="n">
         <v>0</v>
       </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3158,7 +3371,7 @@
         <v>-4</v>
       </c>
       <c r="I68" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3169,6 +3382,9 @@
       <c r="L68" t="n">
         <v>0</v>
       </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3198,7 +3414,7 @@
         <v>-1</v>
       </c>
       <c r="I69" t="n">
-        <v>21.30263</v>
+        <v>21.25</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3209,6 +3425,9 @@
       <c r="L69" t="n">
         <v>0</v>
       </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3226,7 +3445,7 @@
         <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
@@ -3238,10 +3457,10 @@
         <v>-5</v>
       </c>
       <c r="I70" t="n">
-        <v>19.04934</v>
+        <v>18.99671</v>
       </c>
       <c r="J70" t="n">
-        <v>-5</v>
+        <v>-2.25</v>
       </c>
       <c r="K70" t="n">
         <v>3.75</v>
@@ -3249,6 +3468,9 @@
       <c r="L70" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3266,7 +3488,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>3</v>
@@ -3278,10 +3500,10 @@
         <v>-5</v>
       </c>
       <c r="I71" t="n">
-        <v>16.79605</v>
+        <v>16.74342</v>
       </c>
       <c r="J71" t="n">
-        <v>-5</v>
+        <v>-2.25</v>
       </c>
       <c r="K71" t="n">
         <v>3.75</v>
@@ -3289,6 +3511,9 @@
       <c r="L71" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3306,7 +3531,7 @@
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>2</v>
@@ -3318,10 +3543,10 @@
         <v>-6</v>
       </c>
       <c r="I72" t="n">
-        <v>14.27961</v>
+        <v>14.22697</v>
       </c>
       <c r="J72" t="n">
-        <v>-6</v>
+        <v>-2.52</v>
       </c>
       <c r="K72" t="n">
         <v>3.75</v>
@@ -3329,6 +3554,9 @@
       <c r="L72" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3346,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>2</v>
@@ -3358,10 +3586,10 @@
         <v>-6</v>
       </c>
       <c r="I73" t="n">
-        <v>11.76316</v>
+        <v>11.71053</v>
       </c>
       <c r="J73" t="n">
-        <v>-6</v>
+        <v>-2.52</v>
       </c>
       <c r="K73" t="n">
         <v>3.75</v>
@@ -3369,6 +3597,9 @@
       <c r="L73" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3386,7 +3617,7 @@
         <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -3398,10 +3629,10 @@
         <v>-7</v>
       </c>
       <c r="I74" t="n">
-        <v>8.983549999999999</v>
+        <v>8.93092</v>
       </c>
       <c r="J74" t="n">
-        <v>-7</v>
+        <v>-2.78</v>
       </c>
       <c r="K74" t="n">
         <v>3.75</v>
@@ -3409,6 +3640,9 @@
       <c r="L74" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3438,7 +3672,7 @@
         <v>-4</v>
       </c>
       <c r="I75" t="n">
-        <v>8.983549999999999</v>
+        <v>8.93092</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3449,6 +3683,9 @@
       <c r="L75" t="n">
         <v>0</v>
       </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3466,7 +3703,7 @@
         <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3478,10 +3715,10 @@
         <v>-5</v>
       </c>
       <c r="I76" t="n">
-        <v>6.73026</v>
+        <v>6.67763</v>
       </c>
       <c r="J76" t="n">
-        <v>-5</v>
+        <v>-2.25</v>
       </c>
       <c r="K76" t="n">
         <v>3.75</v>
@@ -3489,6 +3726,9 @@
       <c r="L76" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3506,7 +3746,7 @@
         <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3518,10 +3758,10 @@
         <v>-5</v>
       </c>
       <c r="I77" t="n">
-        <v>4.47697</v>
+        <v>4.42434</v>
       </c>
       <c r="J77" t="n">
-        <v>-5</v>
+        <v>-2.25</v>
       </c>
       <c r="K77" t="n">
         <v>3.75</v>
@@ -3529,6 +3769,9 @@
       <c r="L77" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3546,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3558,10 +3801,10 @@
         <v>-5</v>
       </c>
       <c r="I78" t="n">
-        <v>2.22368</v>
+        <v>2.17105</v>
       </c>
       <c r="J78" t="n">
-        <v>-5</v>
+        <v>-2.25</v>
       </c>
       <c r="K78" t="n">
         <v>3.75</v>
@@ -3569,6 +3812,9 @@
       <c r="L78" t="n">
         <v>0.9375</v>
       </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3586,7 +3832,7 @@
         <v>25</v>
       </c>
       <c r="E79" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -3598,17 +3844,20 @@
         <v>-25</v>
       </c>
       <c r="I79" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>-2.17</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3626,7 +3875,7 @@
         <v>25</v>
       </c>
       <c r="E80" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3638,17 +3887,20 @@
         <v>-25</v>
       </c>
       <c r="I80" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3666,7 +3918,7 @@
         <v>25</v>
       </c>
       <c r="E81" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -3678,17 +3930,20 @@
         <v>-25</v>
       </c>
       <c r="I81" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3706,7 +3961,7 @@
         <v>25</v>
       </c>
       <c r="E82" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -3718,17 +3973,20 @@
         <v>-25</v>
       </c>
       <c r="I82" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3746,7 +4004,7 @@
         <v>25</v>
       </c>
       <c r="E83" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3758,17 +4016,20 @@
         <v>-25</v>
       </c>
       <c r="I83" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3786,7 +4047,7 @@
         <v>25</v>
       </c>
       <c r="E84" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3798,17 +4059,20 @@
         <v>-25</v>
       </c>
       <c r="I84" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3826,7 +4090,7 @@
         <v>25</v>
       </c>
       <c r="E85" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3838,17 +4102,20 @@
         <v>-25</v>
       </c>
       <c r="I85" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3866,7 +4133,7 @@
         <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3878,17 +4145,20 @@
         <v>-5</v>
       </c>
       <c r="I86" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3906,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3918,17 +4188,20 @@
         <v>-5</v>
       </c>
       <c r="I87" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3946,7 +4219,7 @@
         <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3958,17 +4231,20 @@
         <v>-5</v>
       </c>
       <c r="I88" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3986,7 +4262,7 @@
         <v>5</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3998,17 +4274,20 @@
         <v>-5</v>
       </c>
       <c r="I89" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4026,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -4038,17 +4317,20 @@
         <v>-5</v>
       </c>
       <c r="I90" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4066,7 +4348,7 @@
         <v>15</v>
       </c>
       <c r="E91" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -4078,17 +4360,20 @@
         <v>-15</v>
       </c>
       <c r="I91" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4106,7 +4391,7 @@
         <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4118,17 +4403,20 @@
         <v>-15</v>
       </c>
       <c r="I92" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4146,7 +4434,7 @@
         <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -4158,17 +4446,20 @@
         <v>-15</v>
       </c>
       <c r="I93" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4186,7 +4477,7 @@
         <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -4198,17 +4489,20 @@
         <v>-5</v>
       </c>
       <c r="I94" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4226,7 +4520,7 @@
         <v>5</v>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4238,17 +4532,20 @@
         <v>-5</v>
       </c>
       <c r="I95" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4266,7 +4563,7 @@
         <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4278,17 +4575,20 @@
         <v>-5</v>
       </c>
       <c r="I96" t="n">
-        <v>2.22368</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9375</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
